--- a/Stamm_Lagerorte.xlsx
+++ b/Stamm_Lagerorte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joan/PycharmProjects/TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90469CB-BD3E-BC48-AC14-3F46A92BA6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996581EA-C1CB-7A4C-B69F-937773EFE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="12640" windowWidth="81920" windowHeight="32920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2017,7 +2017,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="C553" sqref="C553"/>
+      <selection activeCell="F551" sqref="F551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
